--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gas6-Tyro3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gas6-Tyro3.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.97917533333333</v>
+        <v>19.750268</v>
       </c>
       <c r="H2">
-        <v>62.93752600000001</v>
+        <v>59.250804</v>
       </c>
       <c r="I2">
-        <v>0.2451892257562263</v>
+        <v>0.2138888518073023</v>
       </c>
       <c r="J2">
-        <v>0.2451892257562263</v>
+        <v>0.2138888518073023</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.448064</v>
+        <v>0.07585433333333333</v>
       </c>
       <c r="N2">
-        <v>1.344192</v>
+        <v>0.227563</v>
       </c>
       <c r="O2">
-        <v>0.113372348992564</v>
+        <v>0.0240359804038997</v>
       </c>
       <c r="P2">
-        <v>0.113372348992564</v>
+        <v>0.0240359804038997</v>
       </c>
       <c r="Q2">
-        <v>9.400013216554667</v>
+        <v>1.498143412294666</v>
       </c>
       <c r="R2">
-        <v>84.60011894899201</v>
+        <v>13.483290710652</v>
       </c>
       <c r="S2">
-        <v>0.02779767847165146</v>
+        <v>0.005141028250652926</v>
       </c>
       <c r="T2">
-        <v>0.02779767847165146</v>
+        <v>0.005141028250652925</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.97917533333333</v>
+        <v>19.750268</v>
       </c>
       <c r="H3">
-        <v>62.93752600000001</v>
+        <v>59.250804</v>
       </c>
       <c r="I3">
-        <v>0.2451892257562263</v>
+        <v>0.2138888518073023</v>
       </c>
       <c r="J3">
-        <v>0.2451892257562263</v>
+        <v>0.2138888518073023</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>8.854428</v>
       </c>
       <c r="O3">
-        <v>0.7468035082380574</v>
+        <v>0.9352348927362568</v>
       </c>
       <c r="P3">
-        <v>0.7468035082380574</v>
+        <v>0.9352348927362568</v>
       </c>
       <c r="Q3">
-        <v>61.91953249612533</v>
+        <v>58.292441995568</v>
       </c>
       <c r="R3">
-        <v>557.2757924651281</v>
+        <v>524.631977960112</v>
       </c>
       <c r="S3">
-        <v>0.1831081739769228</v>
+        <v>0.2000363173774835</v>
       </c>
       <c r="T3">
-        <v>0.1831081739769228</v>
+        <v>0.2000363173774835</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.97917533333333</v>
+        <v>19.750268</v>
       </c>
       <c r="H4">
-        <v>62.93752600000001</v>
+        <v>59.250804</v>
       </c>
       <c r="I4">
-        <v>0.2451892257562263</v>
+        <v>0.2138888518073023</v>
       </c>
       <c r="J4">
-        <v>0.2451892257562263</v>
+        <v>0.2138888518073023</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5526053333333333</v>
+        <v>0.1285356666666667</v>
       </c>
       <c r="N4">
-        <v>1.657816</v>
+        <v>0.385607</v>
       </c>
       <c r="O4">
-        <v>0.1398241427693786</v>
+        <v>0.04072912685984344</v>
       </c>
       <c r="P4">
-        <v>0.1398241427693786</v>
+        <v>0.04072912685984344</v>
       </c>
       <c r="Q4">
-        <v>11.59320417813511</v>
+        <v>2.538613864225333</v>
       </c>
       <c r="R4">
-        <v>104.338837603216</v>
+        <v>22.847524778028</v>
       </c>
       <c r="S4">
-        <v>0.03428337330765197</v>
+        <v>0.00871150617916587</v>
       </c>
       <c r="T4">
-        <v>0.03428337330765197</v>
+        <v>0.00871150617916587</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>177.158558</v>
       </c>
       <c r="I5">
-        <v>0.6901664624076501</v>
+        <v>0.6395228081370402</v>
       </c>
       <c r="J5">
-        <v>0.6901664624076501</v>
+        <v>0.6395228081370402</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.448064</v>
+        <v>0.07585433333333333</v>
       </c>
       <c r="N5">
-        <v>1.344192</v>
+        <v>0.227563</v>
       </c>
       <c r="O5">
-        <v>0.113372348992564</v>
+        <v>0.0240359804038997</v>
       </c>
       <c r="P5">
-        <v>0.113372348992564</v>
+        <v>0.0240359804038997</v>
       </c>
       <c r="Q5">
-        <v>26.45945737723734</v>
+        <v>4.479414770461555</v>
       </c>
       <c r="R5">
-        <v>238.135116395136</v>
+        <v>40.31473293415399</v>
       </c>
       <c r="S5">
-        <v>0.07824579303904344</v>
+        <v>0.01537155768422881</v>
       </c>
       <c r="T5">
-        <v>0.07824579303904344</v>
+        <v>0.0153715576842288</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>177.158558</v>
       </c>
       <c r="I6">
-        <v>0.6901664624076501</v>
+        <v>0.6395228081370402</v>
       </c>
       <c r="J6">
-        <v>0.6901664624076501</v>
+        <v>0.6395228081370402</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>8.854428</v>
       </c>
       <c r="O6">
-        <v>0.7468035082380574</v>
+        <v>0.9352348927362568</v>
       </c>
       <c r="P6">
-        <v>0.7468035082380574</v>
+        <v>0.9352348927362568</v>
       </c>
       <c r="Q6">
         <v>174.2930773772027</v>
@@ -818,10 +818,10 @@
         <v>1568.637696394824</v>
       </c>
       <c r="S6">
-        <v>0.5154187353942825</v>
+        <v>0.5981040448704346</v>
       </c>
       <c r="T6">
-        <v>0.5154187353942825</v>
+        <v>0.5981040448704346</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>177.158558</v>
       </c>
       <c r="I7">
-        <v>0.6901664624076501</v>
+        <v>0.6395228081370402</v>
       </c>
       <c r="J7">
-        <v>0.6901664624076501</v>
+        <v>0.6395228081370402</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5526053333333333</v>
+        <v>0.1285356666666667</v>
       </c>
       <c r="N7">
-        <v>1.657816</v>
+        <v>0.385607</v>
       </c>
       <c r="O7">
-        <v>0.1398241427693786</v>
+        <v>0.04072912685984344</v>
       </c>
       <c r="P7">
-        <v>0.1398241427693786</v>
+        <v>0.04072912685984344</v>
       </c>
       <c r="Q7">
-        <v>32.63292133214755</v>
+        <v>7.590397786078445</v>
       </c>
       <c r="R7">
-        <v>293.696291989328</v>
+        <v>68.31358007470601</v>
       </c>
       <c r="S7">
-        <v>0.09650193397432422</v>
+        <v>0.02604720558237683</v>
       </c>
       <c r="T7">
-        <v>0.09650193397432422</v>
+        <v>0.02604720558237682</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.531174333333333</v>
+        <v>13.53581066666667</v>
       </c>
       <c r="H8">
-        <v>16.593523</v>
+        <v>40.607432</v>
       </c>
       <c r="I8">
-        <v>0.06464431183612354</v>
+        <v>0.1465883400556574</v>
       </c>
       <c r="J8">
-        <v>0.06464431183612354</v>
+        <v>0.1465883400556574</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.448064</v>
+        <v>0.07585433333333333</v>
       </c>
       <c r="N8">
-        <v>1.344192</v>
+        <v>0.227563</v>
       </c>
       <c r="O8">
-        <v>0.113372348992564</v>
+        <v>0.0240359804038997</v>
       </c>
       <c r="P8">
-        <v>0.113372348992564</v>
+        <v>0.0240359804038997</v>
       </c>
       <c r="Q8">
-        <v>2.478320096490667</v>
+        <v>1.026749894246222</v>
       </c>
       <c r="R8">
-        <v>22.304880868416</v>
+        <v>9.240749048215999</v>
       </c>
       <c r="S8">
-        <v>0.007328877481869137</v>
+        <v>0.003523394469017968</v>
       </c>
       <c r="T8">
-        <v>0.007328877481869137</v>
+        <v>0.003523394469017967</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.531174333333333</v>
+        <v>13.53581066666667</v>
       </c>
       <c r="H9">
-        <v>16.593523</v>
+        <v>40.607432</v>
       </c>
       <c r="I9">
-        <v>0.06464431183612354</v>
+        <v>0.1465883400556574</v>
       </c>
       <c r="J9">
-        <v>0.06464431183612354</v>
+        <v>0.1465883400556574</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>8.854428</v>
       </c>
       <c r="O9">
-        <v>0.7468035082380574</v>
+        <v>0.9352348927362568</v>
       </c>
       <c r="P9">
-        <v>0.7468035082380574</v>
+        <v>0.9352348927362568</v>
       </c>
       <c r="Q9">
-        <v>16.32512829664933</v>
+        <v>39.95062032321067</v>
       </c>
       <c r="R9">
-        <v>146.926154669844</v>
+        <v>359.555582908896</v>
       </c>
       <c r="S9">
-        <v>0.04827659886685204</v>
+        <v>0.1370945304883387</v>
       </c>
       <c r="T9">
-        <v>0.04827659886685204</v>
+        <v>0.1370945304883387</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.531174333333333</v>
+        <v>13.53581066666667</v>
       </c>
       <c r="H10">
-        <v>16.593523</v>
+        <v>40.607432</v>
       </c>
       <c r="I10">
-        <v>0.06464431183612354</v>
+        <v>0.1465883400556574</v>
       </c>
       <c r="J10">
-        <v>0.06464431183612354</v>
+        <v>0.1465883400556574</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5526053333333333</v>
+        <v>0.1285356666666667</v>
       </c>
       <c r="N10">
-        <v>1.657816</v>
+        <v>0.385607</v>
       </c>
       <c r="O10">
-        <v>0.1398241427693786</v>
+        <v>0.04072912685984344</v>
       </c>
       <c r="P10">
-        <v>0.1398241427693786</v>
+        <v>0.04072912685984344</v>
       </c>
       <c r="Q10">
-        <v>3.056556436196444</v>
+        <v>1.739834447913778</v>
       </c>
       <c r="R10">
-        <v>27.509007925768</v>
+        <v>15.658510031224</v>
       </c>
       <c r="S10">
-        <v>0.009038835487402367</v>
+        <v>0.005970415098300741</v>
       </c>
       <c r="T10">
-        <v>0.009038835487402367</v>
+        <v>0.005970415098300741</v>
       </c>
     </row>
   </sheetData>
